--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/ASM Technologies Ltd/Pruned_Excel/Pruned_Balance-sheet_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/ASM Technologies Ltd/Pruned_Excel/Pruned_Balance-sheet_combined.xlsx
@@ -633,10 +633,10 @@
         <v>2.85</v>
       </c>
       <c r="G2">
-        <v>3.686470588235294</v>
+        <v>3.69</v>
       </c>
       <c r="H2">
-        <v>4.531111111111112</v>
+        <v>4.53</v>
       </c>
       <c r="I2">
         <v>5.07</v>
@@ -648,7 +648,7 @@
         <v>1.06</v>
       </c>
       <c r="L2">
-        <v>3.606666666666666</v>
+        <v>3.61</v>
       </c>
       <c r="M2">
         <v>8.210000000000001</v>
@@ -669,7 +669,7 @@
         <v>1.99</v>
       </c>
       <c r="S2">
-        <v>0.4550000000000001</v>
+        <v>0.46</v>
       </c>
       <c r="T2">
         <v>6.18</v>
@@ -684,7 +684,7 @@
         <v>0.42</v>
       </c>
       <c r="X2">
-        <v>8.717857142857143</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="Y2">
         <v>4.88</v>
@@ -722,10 +722,10 @@
         <v>4.46</v>
       </c>
       <c r="G3">
-        <v>3.686470588235294</v>
+        <v>3.69</v>
       </c>
       <c r="H3">
-        <v>4.531111111111112</v>
+        <v>4.53</v>
       </c>
       <c r="I3">
         <v>6.66</v>
@@ -758,7 +758,7 @@
         <v>1.89</v>
       </c>
       <c r="S3">
-        <v>0.4550000000000001</v>
+        <v>0.46</v>
       </c>
       <c r="T3">
         <v>6.52</v>
@@ -773,7 +773,7 @@
         <v>0.6</v>
       </c>
       <c r="X3">
-        <v>8.717857142857143</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="Y3">
         <v>7.6</v>
@@ -782,7 +782,7 @@
         <v>14.12</v>
       </c>
       <c r="AA3">
-        <v>26.33133333333333</v>
+        <v>26.33</v>
       </c>
       <c r="AB3">
         <v>13.95</v>
@@ -847,7 +847,7 @@
         <v>0.44</v>
       </c>
       <c r="S4">
-        <v>0.4550000000000001</v>
+        <v>0.46</v>
       </c>
       <c r="T4">
         <v>5.45</v>
@@ -862,7 +862,7 @@
         <v>1.15</v>
       </c>
       <c r="X4">
-        <v>8.717857142857143</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="Y4">
         <v>11.2</v>
@@ -871,7 +871,7 @@
         <v>16.65</v>
       </c>
       <c r="AA4">
-        <v>26.33133333333333</v>
+        <v>26.33</v>
       </c>
       <c r="AB4">
         <v>13.62</v>
@@ -936,7 +936,7 @@
         <v>0.34</v>
       </c>
       <c r="S5">
-        <v>0.4550000000000001</v>
+        <v>0.46</v>
       </c>
       <c r="T5">
         <v>5.38</v>
@@ -951,7 +951,7 @@
         <v>2.58</v>
       </c>
       <c r="X5">
-        <v>8.717857142857143</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="Y5">
         <v>17.4</v>
@@ -960,7 +960,7 @@
         <v>22.77</v>
       </c>
       <c r="AA5">
-        <v>26.33133333333333</v>
+        <v>26.33</v>
       </c>
       <c r="AB5">
         <v>18.19</v>
@@ -1025,7 +1025,7 @@
         <v>0.22</v>
       </c>
       <c r="S6">
-        <v>0.4550000000000001</v>
+        <v>0.46</v>
       </c>
       <c r="T6">
         <v>6.01</v>
@@ -1040,7 +1040,7 @@
         <v>3.72</v>
       </c>
       <c r="X6">
-        <v>8.717857142857143</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="Y6">
         <v>21.16</v>
@@ -1049,7 +1049,7 @@
         <v>27.17</v>
       </c>
       <c r="AA6">
-        <v>26.33133333333333</v>
+        <v>26.33</v>
       </c>
       <c r="AB6">
         <v>20.1</v>
@@ -1114,7 +1114,7 @@
         <v>0.34</v>
       </c>
       <c r="S7">
-        <v>0.4550000000000001</v>
+        <v>0.46</v>
       </c>
       <c r="T7">
         <v>7.99</v>
@@ -1129,7 +1129,7 @@
         <v>4.03</v>
       </c>
       <c r="X7">
-        <v>8.717857142857143</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="Y7">
         <v>21.14</v>
@@ -1138,7 +1138,7 @@
         <v>29.12</v>
       </c>
       <c r="AA7">
-        <v>26.33133333333333</v>
+        <v>26.33</v>
       </c>
       <c r="AB7">
         <v>14.98</v>
@@ -1203,7 +1203,7 @@
         <v>0.2</v>
       </c>
       <c r="S8">
-        <v>0.4550000000000001</v>
+        <v>0.46</v>
       </c>
       <c r="T8">
         <v>12.56</v>
@@ -1292,7 +1292,7 @@
         <v>0.17</v>
       </c>
       <c r="S9">
-        <v>0.4550000000000001</v>
+        <v>0.46</v>
       </c>
       <c r="T9">
         <v>14.74</v>
@@ -1701,7 +1701,7 @@
         <v>52.39</v>
       </c>
       <c r="G14">
-        <v>3.686470588235294</v>
+        <v>3.69</v>
       </c>
       <c r="H14">
         <v>2.6</v>
@@ -1716,7 +1716,7 @@
         <v>2.48</v>
       </c>
       <c r="L14">
-        <v>3.606666666666666</v>
+        <v>3.61</v>
       </c>
       <c r="M14">
         <v>3.66</v>
@@ -1764,7 +1764,7 @@
         <v>6.49</v>
       </c>
       <c r="AB14">
-        <v>13.73538461538462</v>
+        <v>13.74</v>
       </c>
       <c r="AC14">
         <v>4.45</v>
@@ -1805,7 +1805,7 @@
         <v>3.54</v>
       </c>
       <c r="L15">
-        <v>3.606666666666666</v>
+        <v>3.61</v>
       </c>
       <c r="M15">
         <v>11.62</v>
@@ -1894,7 +1894,7 @@
         <v>4.97</v>
       </c>
       <c r="L16">
-        <v>3.606666666666666</v>
+        <v>3.61</v>
       </c>
       <c r="M16">
         <v>14.14</v>
@@ -1942,7 +1942,7 @@
         <v>29.72</v>
       </c>
       <c r="AB16">
-        <v>13.73538461538462</v>
+        <v>13.74</v>
       </c>
       <c r="AC16">
         <v>3.79</v>
@@ -1983,7 +1983,7 @@
         <v>8.279999999999999</v>
       </c>
       <c r="L17">
-        <v>3.606666666666666</v>
+        <v>3.61</v>
       </c>
       <c r="M17">
         <v>17.91</v>
@@ -2031,7 +2031,7 @@
         <v>29.65</v>
       </c>
       <c r="AB17">
-        <v>13.73538461538462</v>
+        <v>13.74</v>
       </c>
       <c r="AC17">
         <v>9.56</v>
@@ -2120,7 +2120,7 @@
         <v>34.38</v>
       </c>
       <c r="AB18">
-        <v>13.73538461538462</v>
+        <v>13.74</v>
       </c>
       <c r="AC18">
         <v>25.46</v>
@@ -2209,7 +2209,7 @@
         <v>39.93</v>
       </c>
       <c r="AB19">
-        <v>13.73538461538462</v>
+        <v>13.74</v>
       </c>
       <c r="AC19">
         <v>28.72</v>
@@ -2298,7 +2298,7 @@
         <v>38.96</v>
       </c>
       <c r="AB20">
-        <v>13.73538461538462</v>
+        <v>13.74</v>
       </c>
       <c r="AC20">
         <v>25.24</v>
@@ -2387,7 +2387,7 @@
         <v>52.45</v>
       </c>
       <c r="AB21">
-        <v>13.73538461538462</v>
+        <v>13.74</v>
       </c>
       <c r="AC21">
         <v>23.97</v>
